--- a/development/database/excel/guildskill.xlsx
+++ b/development/database/excel/guildskill.xlsx
@@ -2735,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M323"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="H6">
         <v>300</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40000</v>
+        <v>300000</v>
       </c>
       <c r="H7">
         <v>400</v>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="H8">
         <v>500</v>
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60000</v>
+        <v>700000</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>70000</v>
+        <v>900000</v>
       </c>
       <c r="H10">
         <v>700</v>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80000</v>
+        <v>1100000</v>
       </c>
       <c r="H11">
         <v>800</v>
@@ -3212,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90000</v>
+        <v>1300000</v>
       </c>
       <c r="H12">
         <v>900</v>
@@ -3253,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>100000</v>
+        <v>1500000</v>
       </c>
       <c r="H13">
         <v>1000</v>
@@ -3294,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>110000</v>
+        <v>1700000</v>
       </c>
       <c r="H14">
         <v>1100</v>
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>120000</v>
+        <v>1900000</v>
       </c>
       <c r="H15">
         <v>1200</v>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>130000</v>
+        <v>2100000</v>
       </c>
       <c r="H16">
         <v>1300</v>
@@ -3417,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140000</v>
+        <v>2300000</v>
       </c>
       <c r="H17">
         <v>1400</v>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>150000</v>
+        <v>2500000</v>
       </c>
       <c r="H18">
         <v>1500</v>
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>160000</v>
+        <v>2700000</v>
       </c>
       <c r="H19">
         <v>1600</v>
@@ -3540,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>170000</v>
+        <v>2900000</v>
       </c>
       <c r="H20">
         <v>1700</v>
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>180000</v>
+        <v>3100000</v>
       </c>
       <c r="H21">
         <v>1800</v>
@@ -3622,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>190000</v>
+        <v>3300000</v>
       </c>
       <c r="H22">
         <v>1900</v>
@@ -3663,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>200000</v>
+        <v>3500000</v>
       </c>
       <c r="H23">
         <v>2000</v>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>210000</v>
+        <v>3700000</v>
       </c>
       <c r="H24">
         <v>2100</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>220000</v>
+        <v>3900000</v>
       </c>
       <c r="H25">
         <v>2200</v>
@@ -3786,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>230000</v>
+        <v>4100000</v>
       </c>
       <c r="H26">
         <v>2300</v>
@@ -3827,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>240000</v>
+        <v>4300000</v>
       </c>
       <c r="H27">
         <v>2400</v>
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>250000</v>
+        <v>4500000</v>
       </c>
       <c r="H28">
         <v>2500</v>
@@ -3909,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>260000</v>
+        <v>4700000</v>
       </c>
       <c r="H29">
         <v>2600</v>
@@ -3950,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>270000</v>
+        <v>4900000</v>
       </c>
       <c r="H30">
         <v>2700</v>
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>280000</v>
+        <v>5100000</v>
       </c>
       <c r="H31">
         <v>2800</v>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>290000</v>
+        <v>5300000</v>
       </c>
       <c r="H32">
         <v>2900</v>
@@ -4073,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>300000</v>
+        <v>5500000</v>
       </c>
       <c r="H33">
         <v>3000</v>
@@ -4114,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>310000</v>
+        <v>5700000</v>
       </c>
       <c r="H34">
         <v>3100</v>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>320000</v>
+        <v>5900000</v>
       </c>
       <c r="H35">
         <v>3200</v>
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>330000</v>
+        <v>6100000</v>
       </c>
       <c r="H36">
         <v>3300</v>
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>340000</v>
+        <v>6300000</v>
       </c>
       <c r="H37">
         <v>3400</v>
@@ -4278,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>350000</v>
+        <v>6500000</v>
       </c>
       <c r="H38">
         <v>3500</v>
@@ -4319,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>360000</v>
+        <v>6700000</v>
       </c>
       <c r="H39">
         <v>3600</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>370000</v>
+        <v>6900000</v>
       </c>
       <c r="H40">
         <v>3700</v>
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>380000</v>
+        <v>7100000</v>
       </c>
       <c r="H41">
         <v>3800</v>
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>390000</v>
+        <v>7300000</v>
       </c>
       <c r="H42">
         <v>3900</v>
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>400000</v>
+        <v>7500000</v>
       </c>
       <c r="H43">
         <v>4000</v>
@@ -4524,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>410000</v>
+        <v>10000</v>
       </c>
       <c r="H44">
         <v>100</v>
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>420000</v>
+        <v>50000</v>
       </c>
       <c r="H45">
         <v>200</v>
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>430000</v>
+        <v>100000</v>
       </c>
       <c r="H46">
         <v>300</v>
@@ -4647,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>440000</v>
+        <v>300000</v>
       </c>
       <c r="H47">
         <v>400</v>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="H48">
         <v>500</v>
@@ -4729,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>460000</v>
+        <v>700000</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>470000</v>
+        <v>900000</v>
       </c>
       <c r="H50">
         <v>700</v>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>480000</v>
+        <v>1100000</v>
       </c>
       <c r="H51">
         <v>800</v>
@@ -4852,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>490000</v>
+        <v>1300000</v>
       </c>
       <c r="H52">
         <v>900</v>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="H53">
         <v>1000</v>
@@ -4934,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>510000</v>
+        <v>1700000</v>
       </c>
       <c r="H54">
         <v>1100</v>
@@ -4975,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>520000</v>
+        <v>1900000</v>
       </c>
       <c r="H55">
         <v>1200</v>
@@ -5016,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>530000</v>
+        <v>2100000</v>
       </c>
       <c r="H56">
         <v>1300</v>
@@ -5057,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>540000</v>
+        <v>2300000</v>
       </c>
       <c r="H57">
         <v>1400</v>
@@ -5098,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>550000</v>
+        <v>2500000</v>
       </c>
       <c r="H58">
         <v>1500</v>
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>560000</v>
+        <v>2700000</v>
       </c>
       <c r="H59">
         <v>1600</v>
@@ -5180,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>570000</v>
+        <v>2900000</v>
       </c>
       <c r="H60">
         <v>1700</v>
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>580000</v>
+        <v>3100000</v>
       </c>
       <c r="H61">
         <v>1800</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <v>590000</v>
+        <v>3300000</v>
       </c>
       <c r="H62">
         <v>1900</v>
@@ -5303,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>600000</v>
+        <v>3500000</v>
       </c>
       <c r="H63">
         <v>2000</v>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>610000</v>
+        <v>3700000</v>
       </c>
       <c r="H64">
         <v>2100</v>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>620000</v>
+        <v>3900000</v>
       </c>
       <c r="H65">
         <v>2200</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>630000</v>
+        <v>4100000</v>
       </c>
       <c r="H66">
         <v>2300</v>
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>640000</v>
+        <v>4300000</v>
       </c>
       <c r="H67">
         <v>2400</v>
@@ -5508,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>650000</v>
+        <v>4500000</v>
       </c>
       <c r="H68">
         <v>2500</v>
@@ -5549,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>660000</v>
+        <v>4700000</v>
       </c>
       <c r="H69">
         <v>2600</v>
@@ -5590,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>670000</v>
+        <v>4900000</v>
       </c>
       <c r="H70">
         <v>2700</v>
@@ -5631,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>680000</v>
+        <v>5100000</v>
       </c>
       <c r="H71">
         <v>2800</v>
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>690000</v>
+        <v>5300000</v>
       </c>
       <c r="H72">
         <v>2900</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>700000</v>
+        <v>5500000</v>
       </c>
       <c r="H73">
         <v>3000</v>
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>710000</v>
+        <v>5700000</v>
       </c>
       <c r="H74">
         <v>3100</v>
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <v>720000</v>
+        <v>5900000</v>
       </c>
       <c r="H75">
         <v>3200</v>
@@ -5836,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>730000</v>
+        <v>6100000</v>
       </c>
       <c r="H76">
         <v>3300</v>
@@ -5877,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>740000</v>
+        <v>6300000</v>
       </c>
       <c r="H77">
         <v>3400</v>
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <v>750000</v>
+        <v>6500000</v>
       </c>
       <c r="H78">
         <v>3500</v>
@@ -5959,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>760000</v>
+        <v>6700000</v>
       </c>
       <c r="H79">
         <v>3600</v>
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>770000</v>
+        <v>6900000</v>
       </c>
       <c r="H80">
         <v>3700</v>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>780000</v>
+        <v>7100000</v>
       </c>
       <c r="H81">
         <v>3800</v>
@@ -6082,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>790000</v>
+        <v>7300000</v>
       </c>
       <c r="H82">
         <v>3900</v>
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>800000</v>
+        <v>7500000</v>
       </c>
       <c r="H83">
         <v>4000</v>
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="H85">
         <v>200</v>
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="H86">
         <v>300</v>
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>40000</v>
+        <v>300000</v>
       </c>
       <c r="H87">
         <v>400</v>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="H88">
         <v>500</v>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>60000</v>
+        <v>700000</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -6410,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>70000</v>
+        <v>900000</v>
       </c>
       <c r="H90">
         <v>700</v>
@@ -6451,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>80000</v>
+        <v>1100000</v>
       </c>
       <c r="H91">
         <v>800</v>
@@ -6492,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <v>90000</v>
+        <v>1300000</v>
       </c>
       <c r="H92">
         <v>900</v>
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>100000</v>
+        <v>1500000</v>
       </c>
       <c r="H93">
         <v>1000</v>
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>110000</v>
+        <v>1700000</v>
       </c>
       <c r="H94">
         <v>1100</v>
@@ -6615,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>120000</v>
+        <v>1900000</v>
       </c>
       <c r="H95">
         <v>1200</v>
@@ -6656,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <v>130000</v>
+        <v>2100000</v>
       </c>
       <c r="H96">
         <v>1300</v>
@@ -6697,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>140000</v>
+        <v>2300000</v>
       </c>
       <c r="H97">
         <v>1400</v>
@@ -6738,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>150000</v>
+        <v>2500000</v>
       </c>
       <c r="H98">
         <v>1500</v>
@@ -6779,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>160000</v>
+        <v>2700000</v>
       </c>
       <c r="H99">
         <v>1600</v>
@@ -6820,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>170000</v>
+        <v>2900000</v>
       </c>
       <c r="H100">
         <v>1700</v>
@@ -6861,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>180000</v>
+        <v>3100000</v>
       </c>
       <c r="H101">
         <v>1800</v>
@@ -6902,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>190000</v>
+        <v>3300000</v>
       </c>
       <c r="H102">
         <v>1900</v>
@@ -6943,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>200000</v>
+        <v>3500000</v>
       </c>
       <c r="H103">
         <v>2000</v>
@@ -6984,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>210000</v>
+        <v>3700000</v>
       </c>
       <c r="H104">
         <v>2100</v>
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>220000</v>
+        <v>3900000</v>
       </c>
       <c r="H105">
         <v>2200</v>
@@ -7066,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="G106">
-        <v>230000</v>
+        <v>4100000</v>
       </c>
       <c r="H106">
         <v>2300</v>
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>240000</v>
+        <v>4300000</v>
       </c>
       <c r="H107">
         <v>2400</v>
@@ -7148,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="G108">
-        <v>250000</v>
+        <v>4500000</v>
       </c>
       <c r="H108">
         <v>2500</v>
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>260000</v>
+        <v>4700000</v>
       </c>
       <c r="H109">
         <v>2600</v>
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <v>270000</v>
+        <v>4900000</v>
       </c>
       <c r="H110">
         <v>2700</v>
@@ -7271,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>280000</v>
+        <v>5100000</v>
       </c>
       <c r="H111">
         <v>2800</v>
@@ -7312,7 +7312,7 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>290000</v>
+        <v>5300000</v>
       </c>
       <c r="H112">
         <v>2900</v>
@@ -7353,7 +7353,7 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>300000</v>
+        <v>5500000</v>
       </c>
       <c r="H113">
         <v>3000</v>
@@ -7394,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <v>310000</v>
+        <v>5700000</v>
       </c>
       <c r="H114">
         <v>3100</v>
@@ -7435,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <v>320000</v>
+        <v>5900000</v>
       </c>
       <c r="H115">
         <v>3200</v>
@@ -7476,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="G116">
-        <v>330000</v>
+        <v>6100000</v>
       </c>
       <c r="H116">
         <v>3300</v>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>340000</v>
+        <v>6300000</v>
       </c>
       <c r="H117">
         <v>3400</v>
@@ -7558,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="G118">
-        <v>350000</v>
+        <v>6500000</v>
       </c>
       <c r="H118">
         <v>3500</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <v>360000</v>
+        <v>6700000</v>
       </c>
       <c r="H119">
         <v>3600</v>
@@ -7640,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="G120">
-        <v>370000</v>
+        <v>6900000</v>
       </c>
       <c r="H120">
         <v>3700</v>
@@ -7681,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <v>380000</v>
+        <v>7100000</v>
       </c>
       <c r="H121">
         <v>3800</v>
@@ -7722,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="G122">
-        <v>390000</v>
+        <v>7300000</v>
       </c>
       <c r="H122">
         <v>3900</v>
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>400000</v>
+        <v>7500000</v>
       </c>
       <c r="H123">
         <v>4000</v>
@@ -7804,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>410000</v>
+        <v>10000</v>
       </c>
       <c r="H124">
         <v>100</v>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <v>420000</v>
+        <v>50000</v>
       </c>
       <c r="H125">
         <v>200</v>
@@ -7886,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="G126">
-        <v>430000</v>
+        <v>100000</v>
       </c>
       <c r="H126">
         <v>300</v>
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="G127">
-        <v>440000</v>
+        <v>300000</v>
       </c>
       <c r="H127">
         <v>400</v>
@@ -7968,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="H128">
         <v>500</v>
@@ -8009,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <v>460000</v>
+        <v>700000</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -8050,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <v>470000</v>
+        <v>900000</v>
       </c>
       <c r="H130">
         <v>700</v>
@@ -8091,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="G131">
-        <v>480000</v>
+        <v>1100000</v>
       </c>
       <c r="H131">
         <v>800</v>
@@ -8132,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="G132">
-        <v>490000</v>
+        <v>1300000</v>
       </c>
       <c r="H132">
         <v>900</v>
@@ -8173,7 +8173,7 @@
         <v>1</v>
       </c>
       <c r="G133">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="H133">
         <v>1000</v>
@@ -8214,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <v>510000</v>
+        <v>1700000</v>
       </c>
       <c r="H134">
         <v>1100</v>
@@ -8255,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="G135">
-        <v>520000</v>
+        <v>1900000</v>
       </c>
       <c r="H135">
         <v>1200</v>
@@ -8296,7 +8296,7 @@
         <v>1</v>
       </c>
       <c r="G136">
-        <v>530000</v>
+        <v>2100000</v>
       </c>
       <c r="H136">
         <v>1300</v>
@@ -8337,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="G137">
-        <v>540000</v>
+        <v>2300000</v>
       </c>
       <c r="H137">
         <v>1400</v>
@@ -8378,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="G138">
-        <v>550000</v>
+        <v>2500000</v>
       </c>
       <c r="H138">
         <v>1500</v>
@@ -8419,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="G139">
-        <v>560000</v>
+        <v>2700000</v>
       </c>
       <c r="H139">
         <v>1600</v>
@@ -8460,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="G140">
-        <v>570000</v>
+        <v>2900000</v>
       </c>
       <c r="H140">
         <v>1700</v>
@@ -8501,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="G141">
-        <v>580000</v>
+        <v>3100000</v>
       </c>
       <c r="H141">
         <v>1800</v>
@@ -8542,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>590000</v>
+        <v>3300000</v>
       </c>
       <c r="H142">
         <v>1900</v>
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="G143">
-        <v>600000</v>
+        <v>3500000</v>
       </c>
       <c r="H143">
         <v>2000</v>
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="G144">
-        <v>610000</v>
+        <v>3700000</v>
       </c>
       <c r="H144">
         <v>2100</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="G145">
-        <v>620000</v>
+        <v>3900000</v>
       </c>
       <c r="H145">
         <v>2200</v>
@@ -8706,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="G146">
-        <v>630000</v>
+        <v>4100000</v>
       </c>
       <c r="H146">
         <v>2300</v>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="G147">
-        <v>640000</v>
+        <v>4300000</v>
       </c>
       <c r="H147">
         <v>2400</v>
@@ -8788,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="G148">
-        <v>650000</v>
+        <v>4500000</v>
       </c>
       <c r="H148">
         <v>2500</v>
@@ -8829,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="G149">
-        <v>660000</v>
+        <v>4700000</v>
       </c>
       <c r="H149">
         <v>2600</v>
@@ -8870,7 +8870,7 @@
         <v>1</v>
       </c>
       <c r="G150">
-        <v>670000</v>
+        <v>4900000</v>
       </c>
       <c r="H150">
         <v>2700</v>
@@ -8911,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="G151">
-        <v>680000</v>
+        <v>5100000</v>
       </c>
       <c r="H151">
         <v>2800</v>
@@ -8952,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="G152">
-        <v>690000</v>
+        <v>5300000</v>
       </c>
       <c r="H152">
         <v>2900</v>
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="G153">
-        <v>700000</v>
+        <v>5500000</v>
       </c>
       <c r="H153">
         <v>3000</v>
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="G154">
-        <v>710000</v>
+        <v>5700000</v>
       </c>
       <c r="H154">
         <v>3100</v>
@@ -9075,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="G155">
-        <v>720000</v>
+        <v>5900000</v>
       </c>
       <c r="H155">
         <v>3200</v>
@@ -9116,7 +9116,7 @@
         <v>1</v>
       </c>
       <c r="G156">
-        <v>730000</v>
+        <v>6100000</v>
       </c>
       <c r="H156">
         <v>3300</v>
@@ -9157,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="G157">
-        <v>740000</v>
+        <v>6300000</v>
       </c>
       <c r="H157">
         <v>3400</v>
@@ -9198,7 +9198,7 @@
         <v>1</v>
       </c>
       <c r="G158">
-        <v>750000</v>
+        <v>6500000</v>
       </c>
       <c r="H158">
         <v>3500</v>
@@ -9239,7 +9239,7 @@
         <v>1</v>
       </c>
       <c r="G159">
-        <v>760000</v>
+        <v>6700000</v>
       </c>
       <c r="H159">
         <v>3600</v>
@@ -9280,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="G160">
-        <v>770000</v>
+        <v>6900000</v>
       </c>
       <c r="H160">
         <v>3700</v>
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="G161">
-        <v>780000</v>
+        <v>7100000</v>
       </c>
       <c r="H161">
         <v>3800</v>
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="G162">
-        <v>790000</v>
+        <v>7300000</v>
       </c>
       <c r="H162">
         <v>3900</v>
@@ -9403,7 +9403,7 @@
         <v>1</v>
       </c>
       <c r="G163">
-        <v>800000</v>
+        <v>7500000</v>
       </c>
       <c r="H163">
         <v>4000</v>
@@ -9485,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="G165">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="H165">
         <v>200</v>
@@ -9526,7 +9526,7 @@
         <v>1</v>
       </c>
       <c r="G166">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="H166">
         <v>300</v>
@@ -9567,7 +9567,7 @@
         <v>1</v>
       </c>
       <c r="G167">
-        <v>40000</v>
+        <v>300000</v>
       </c>
       <c r="H167">
         <v>400</v>
@@ -9608,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="G168">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="H168">
         <v>500</v>
@@ -9649,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="G169">
-        <v>60000</v>
+        <v>700000</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -9690,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="G170">
-        <v>70000</v>
+        <v>900000</v>
       </c>
       <c r="H170">
         <v>700</v>
@@ -9731,7 +9731,7 @@
         <v>1</v>
       </c>
       <c r="G171">
-        <v>80000</v>
+        <v>1100000</v>
       </c>
       <c r="H171">
         <v>800</v>
@@ -9772,7 +9772,7 @@
         <v>1</v>
       </c>
       <c r="G172">
-        <v>90000</v>
+        <v>1300000</v>
       </c>
       <c r="H172">
         <v>900</v>
@@ -9813,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="G173">
-        <v>100000</v>
+        <v>1500000</v>
       </c>
       <c r="H173">
         <v>1000</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="G174">
-        <v>110000</v>
+        <v>1700000</v>
       </c>
       <c r="H174">
         <v>1100</v>
@@ -9895,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="G175">
-        <v>120000</v>
+        <v>1900000</v>
       </c>
       <c r="H175">
         <v>1200</v>
@@ -9936,7 +9936,7 @@
         <v>1</v>
       </c>
       <c r="G176">
-        <v>130000</v>
+        <v>2100000</v>
       </c>
       <c r="H176">
         <v>1300</v>
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="G177">
-        <v>140000</v>
+        <v>2300000</v>
       </c>
       <c r="H177">
         <v>1400</v>
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="G178">
-        <v>150000</v>
+        <v>2500000</v>
       </c>
       <c r="H178">
         <v>1500</v>
@@ -10059,7 +10059,7 @@
         <v>1</v>
       </c>
       <c r="G179">
-        <v>160000</v>
+        <v>2700000</v>
       </c>
       <c r="H179">
         <v>1600</v>
@@ -10100,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="G180">
-        <v>170000</v>
+        <v>2900000</v>
       </c>
       <c r="H180">
         <v>1700</v>
@@ -10141,7 +10141,7 @@
         <v>1</v>
       </c>
       <c r="G181">
-        <v>180000</v>
+        <v>3100000</v>
       </c>
       <c r="H181">
         <v>1800</v>
@@ -10182,7 +10182,7 @@
         <v>1</v>
       </c>
       <c r="G182">
-        <v>190000</v>
+        <v>3300000</v>
       </c>
       <c r="H182">
         <v>1900</v>
@@ -10223,7 +10223,7 @@
         <v>1</v>
       </c>
       <c r="G183">
-        <v>200000</v>
+        <v>3500000</v>
       </c>
       <c r="H183">
         <v>2000</v>
@@ -10264,7 +10264,7 @@
         <v>1</v>
       </c>
       <c r="G184">
-        <v>210000</v>
+        <v>3700000</v>
       </c>
       <c r="H184">
         <v>2100</v>
@@ -10305,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="G185">
-        <v>220000</v>
+        <v>3900000</v>
       </c>
       <c r="H185">
         <v>2200</v>
@@ -10346,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="G186">
-        <v>230000</v>
+        <v>4100000</v>
       </c>
       <c r="H186">
         <v>2300</v>
@@ -10387,7 +10387,7 @@
         <v>1</v>
       </c>
       <c r="G187">
-        <v>240000</v>
+        <v>4300000</v>
       </c>
       <c r="H187">
         <v>2400</v>
@@ -10428,7 +10428,7 @@
         <v>1</v>
       </c>
       <c r="G188">
-        <v>250000</v>
+        <v>4500000</v>
       </c>
       <c r="H188">
         <v>2500</v>
@@ -10469,7 +10469,7 @@
         <v>1</v>
       </c>
       <c r="G189">
-        <v>260000</v>
+        <v>4700000</v>
       </c>
       <c r="H189">
         <v>2600</v>
@@ -10510,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="G190">
-        <v>270000</v>
+        <v>4900000</v>
       </c>
       <c r="H190">
         <v>2700</v>
@@ -10551,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="G191">
-        <v>280000</v>
+        <v>5100000</v>
       </c>
       <c r="H191">
         <v>2800</v>
@@ -10592,7 +10592,7 @@
         <v>1</v>
       </c>
       <c r="G192">
-        <v>290000</v>
+        <v>5300000</v>
       </c>
       <c r="H192">
         <v>2900</v>
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="G193">
-        <v>300000</v>
+        <v>5500000</v>
       </c>
       <c r="H193">
         <v>3000</v>
@@ -10674,7 +10674,7 @@
         <v>1</v>
       </c>
       <c r="G194">
-        <v>310000</v>
+        <v>5700000</v>
       </c>
       <c r="H194">
         <v>3100</v>
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="G195">
-        <v>320000</v>
+        <v>5900000</v>
       </c>
       <c r="H195">
         <v>3200</v>
@@ -10756,7 +10756,7 @@
         <v>1</v>
       </c>
       <c r="G196">
-        <v>330000</v>
+        <v>6100000</v>
       </c>
       <c r="H196">
         <v>3300</v>
@@ -10797,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="G197">
-        <v>340000</v>
+        <v>6300000</v>
       </c>
       <c r="H197">
         <v>3400</v>
@@ -10838,7 +10838,7 @@
         <v>1</v>
       </c>
       <c r="G198">
-        <v>350000</v>
+        <v>6500000</v>
       </c>
       <c r="H198">
         <v>3500</v>
@@ -10879,7 +10879,7 @@
         <v>1</v>
       </c>
       <c r="G199">
-        <v>360000</v>
+        <v>6700000</v>
       </c>
       <c r="H199">
         <v>3600</v>
@@ -10920,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="G200">
-        <v>370000</v>
+        <v>6900000</v>
       </c>
       <c r="H200">
         <v>3700</v>
@@ -10961,7 +10961,7 @@
         <v>1</v>
       </c>
       <c r="G201">
-        <v>380000</v>
+        <v>7100000</v>
       </c>
       <c r="H201">
         <v>3800</v>
@@ -11002,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="G202">
-        <v>390000</v>
+        <v>7300000</v>
       </c>
       <c r="H202">
         <v>3900</v>
@@ -11043,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="G203">
-        <v>400000</v>
+        <v>7500000</v>
       </c>
       <c r="H203">
         <v>4000</v>
@@ -11084,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="G204">
-        <v>410000</v>
+        <v>10000</v>
       </c>
       <c r="H204">
         <v>100</v>
@@ -11125,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="G205">
-        <v>420000</v>
+        <v>50000</v>
       </c>
       <c r="H205">
         <v>200</v>
@@ -11166,7 +11166,7 @@
         <v>1</v>
       </c>
       <c r="G206">
-        <v>430000</v>
+        <v>100000</v>
       </c>
       <c r="H206">
         <v>300</v>
@@ -11207,7 +11207,7 @@
         <v>1</v>
       </c>
       <c r="G207">
-        <v>440000</v>
+        <v>300000</v>
       </c>
       <c r="H207">
         <v>400</v>
@@ -11248,7 +11248,7 @@
         <v>1</v>
       </c>
       <c r="G208">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="H208">
         <v>500</v>
@@ -11289,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="G209">
-        <v>460000</v>
+        <v>700000</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -11330,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="G210">
-        <v>470000</v>
+        <v>900000</v>
       </c>
       <c r="H210">
         <v>700</v>
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="G211">
-        <v>480000</v>
+        <v>1100000</v>
       </c>
       <c r="H211">
         <v>800</v>
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="G212">
-        <v>490000</v>
+        <v>1300000</v>
       </c>
       <c r="H212">
         <v>900</v>
@@ -11453,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="G213">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="H213">
         <v>1000</v>
@@ -11494,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="G214">
-        <v>510000</v>
+        <v>1700000</v>
       </c>
       <c r="H214">
         <v>1100</v>
@@ -11535,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="G215">
-        <v>520000</v>
+        <v>1900000</v>
       </c>
       <c r="H215">
         <v>1200</v>
@@ -11576,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="G216">
-        <v>530000</v>
+        <v>2100000</v>
       </c>
       <c r="H216">
         <v>1300</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="G217">
-        <v>540000</v>
+        <v>2300000</v>
       </c>
       <c r="H217">
         <v>1400</v>
@@ -11658,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="G218">
-        <v>550000</v>
+        <v>2500000</v>
       </c>
       <c r="H218">
         <v>1500</v>
@@ -11699,7 +11699,7 @@
         <v>1</v>
       </c>
       <c r="G219">
-        <v>560000</v>
+        <v>2700000</v>
       </c>
       <c r="H219">
         <v>1600</v>
@@ -11740,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="G220">
-        <v>570000</v>
+        <v>2900000</v>
       </c>
       <c r="H220">
         <v>1700</v>
@@ -11781,7 +11781,7 @@
         <v>1</v>
       </c>
       <c r="G221">
-        <v>580000</v>
+        <v>3100000</v>
       </c>
       <c r="H221">
         <v>1800</v>
@@ -11822,7 +11822,7 @@
         <v>1</v>
       </c>
       <c r="G222">
-        <v>590000</v>
+        <v>3300000</v>
       </c>
       <c r="H222">
         <v>1900</v>
@@ -11863,7 +11863,7 @@
         <v>1</v>
       </c>
       <c r="G223">
-        <v>600000</v>
+        <v>3500000</v>
       </c>
       <c r="H223">
         <v>2000</v>
@@ -11904,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="G224">
-        <v>610000</v>
+        <v>3700000</v>
       </c>
       <c r="H224">
         <v>2100</v>
@@ -11945,7 +11945,7 @@
         <v>1</v>
       </c>
       <c r="G225">
-        <v>620000</v>
+        <v>3900000</v>
       </c>
       <c r="H225">
         <v>2200</v>
@@ -11986,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="G226">
-        <v>630000</v>
+        <v>4100000</v>
       </c>
       <c r="H226">
         <v>2300</v>
@@ -12027,7 +12027,7 @@
         <v>1</v>
       </c>
       <c r="G227">
-        <v>640000</v>
+        <v>4300000</v>
       </c>
       <c r="H227">
         <v>2400</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="G228">
-        <v>650000</v>
+        <v>4500000</v>
       </c>
       <c r="H228">
         <v>2500</v>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="G229">
-        <v>660000</v>
+        <v>4700000</v>
       </c>
       <c r="H229">
         <v>2600</v>
@@ -12150,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="G230">
-        <v>670000</v>
+        <v>4900000</v>
       </c>
       <c r="H230">
         <v>2700</v>
@@ -12191,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="G231">
-        <v>680000</v>
+        <v>5100000</v>
       </c>
       <c r="H231">
         <v>2800</v>
@@ -12232,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="G232">
-        <v>690000</v>
+        <v>5300000</v>
       </c>
       <c r="H232">
         <v>2900</v>
@@ -12273,7 +12273,7 @@
         <v>1</v>
       </c>
       <c r="G233">
-        <v>700000</v>
+        <v>5500000</v>
       </c>
       <c r="H233">
         <v>3000</v>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="G234">
-        <v>710000</v>
+        <v>5700000</v>
       </c>
       <c r="H234">
         <v>3100</v>
@@ -12355,7 +12355,7 @@
         <v>1</v>
       </c>
       <c r="G235">
-        <v>720000</v>
+        <v>5900000</v>
       </c>
       <c r="H235">
         <v>3200</v>
@@ -12396,7 +12396,7 @@
         <v>1</v>
       </c>
       <c r="G236">
-        <v>730000</v>
+        <v>6100000</v>
       </c>
       <c r="H236">
         <v>3300</v>
@@ -12437,7 +12437,7 @@
         <v>1</v>
       </c>
       <c r="G237">
-        <v>740000</v>
+        <v>6300000</v>
       </c>
       <c r="H237">
         <v>3400</v>
@@ -12478,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="G238">
-        <v>750000</v>
+        <v>6500000</v>
       </c>
       <c r="H238">
         <v>3500</v>
@@ -12519,7 +12519,7 @@
         <v>1</v>
       </c>
       <c r="G239">
-        <v>760000</v>
+        <v>6700000</v>
       </c>
       <c r="H239">
         <v>3600</v>
@@ -12560,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="G240">
-        <v>770000</v>
+        <v>6900000</v>
       </c>
       <c r="H240">
         <v>3700</v>
@@ -12601,7 +12601,7 @@
         <v>1</v>
       </c>
       <c r="G241">
-        <v>780000</v>
+        <v>7100000</v>
       </c>
       <c r="H241">
         <v>3800</v>
@@ -12642,7 +12642,7 @@
         <v>1</v>
       </c>
       <c r="G242">
-        <v>790000</v>
+        <v>7300000</v>
       </c>
       <c r="H242">
         <v>3900</v>
@@ -12683,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="G243">
-        <v>800000</v>
+        <v>7500000</v>
       </c>
       <c r="H243">
         <v>4000</v>
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="G245">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="H245">
         <v>200</v>
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="G246">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="H246">
         <v>300</v>
@@ -12847,7 +12847,7 @@
         <v>1</v>
       </c>
       <c r="G247">
-        <v>40000</v>
+        <v>300000</v>
       </c>
       <c r="H247">
         <v>400</v>
@@ -12888,7 +12888,7 @@
         <v>1</v>
       </c>
       <c r="G248">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="H248">
         <v>500</v>
@@ -12929,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="G249">
-        <v>60000</v>
+        <v>700000</v>
       </c>
       <c r="H249">
         <v>600</v>
@@ -12970,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="G250">
-        <v>70000</v>
+        <v>900000</v>
       </c>
       <c r="H250">
         <v>700</v>
@@ -13011,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="G251">
-        <v>80000</v>
+        <v>1100000</v>
       </c>
       <c r="H251">
         <v>800</v>
@@ -13052,7 +13052,7 @@
         <v>1</v>
       </c>
       <c r="G252">
-        <v>90000</v>
+        <v>1300000</v>
       </c>
       <c r="H252">
         <v>900</v>
@@ -13093,7 +13093,7 @@
         <v>1</v>
       </c>
       <c r="G253">
-        <v>100000</v>
+        <v>1500000</v>
       </c>
       <c r="H253">
         <v>1000</v>
@@ -13134,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="G254">
-        <v>110000</v>
+        <v>1700000</v>
       </c>
       <c r="H254">
         <v>1100</v>
@@ -13175,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="G255">
-        <v>120000</v>
+        <v>1900000</v>
       </c>
       <c r="H255">
         <v>1200</v>
@@ -13216,7 +13216,7 @@
         <v>1</v>
       </c>
       <c r="G256">
-        <v>130000</v>
+        <v>2100000</v>
       </c>
       <c r="H256">
         <v>1300</v>
@@ -13257,7 +13257,7 @@
         <v>1</v>
       </c>
       <c r="G257">
-        <v>140000</v>
+        <v>2300000</v>
       </c>
       <c r="H257">
         <v>1400</v>
@@ -13298,7 +13298,7 @@
         <v>1</v>
       </c>
       <c r="G258">
-        <v>150000</v>
+        <v>2500000</v>
       </c>
       <c r="H258">
         <v>1500</v>
@@ -13339,7 +13339,7 @@
         <v>1</v>
       </c>
       <c r="G259">
-        <v>160000</v>
+        <v>2700000</v>
       </c>
       <c r="H259">
         <v>1600</v>
@@ -13380,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="G260">
-        <v>170000</v>
+        <v>2900000</v>
       </c>
       <c r="H260">
         <v>1700</v>
@@ -13421,7 +13421,7 @@
         <v>1</v>
       </c>
       <c r="G261">
-        <v>180000</v>
+        <v>3100000</v>
       </c>
       <c r="H261">
         <v>1800</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="G262">
-        <v>190000</v>
+        <v>3300000</v>
       </c>
       <c r="H262">
         <v>1900</v>
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="G263">
-        <v>200000</v>
+        <v>3500000</v>
       </c>
       <c r="H263">
         <v>2000</v>
@@ -13544,7 +13544,7 @@
         <v>1</v>
       </c>
       <c r="G264">
-        <v>210000</v>
+        <v>3700000</v>
       </c>
       <c r="H264">
         <v>2100</v>
@@ -13585,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="G265">
-        <v>220000</v>
+        <v>3900000</v>
       </c>
       <c r="H265">
         <v>2200</v>
@@ -13626,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="G266">
-        <v>230000</v>
+        <v>4100000</v>
       </c>
       <c r="H266">
         <v>2300</v>
@@ -13667,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="G267">
-        <v>240000</v>
+        <v>4300000</v>
       </c>
       <c r="H267">
         <v>2400</v>
@@ -13708,7 +13708,7 @@
         <v>1</v>
       </c>
       <c r="G268">
-        <v>250000</v>
+        <v>4500000</v>
       </c>
       <c r="H268">
         <v>2500</v>
@@ -13749,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="G269">
-        <v>260000</v>
+        <v>4700000</v>
       </c>
       <c r="H269">
         <v>2600</v>
@@ -13790,7 +13790,7 @@
         <v>1</v>
       </c>
       <c r="G270">
-        <v>270000</v>
+        <v>4900000</v>
       </c>
       <c r="H270">
         <v>2700</v>
@@ -13831,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="G271">
-        <v>280000</v>
+        <v>5100000</v>
       </c>
       <c r="H271">
         <v>2800</v>
@@ -13872,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="G272">
-        <v>290000</v>
+        <v>5300000</v>
       </c>
       <c r="H272">
         <v>2900</v>
@@ -13913,7 +13913,7 @@
         <v>1</v>
       </c>
       <c r="G273">
-        <v>300000</v>
+        <v>5500000</v>
       </c>
       <c r="H273">
         <v>3000</v>
@@ -13954,7 +13954,7 @@
         <v>1</v>
       </c>
       <c r="G274">
-        <v>310000</v>
+        <v>5700000</v>
       </c>
       <c r="H274">
         <v>3100</v>
@@ -13995,7 +13995,7 @@
         <v>1</v>
       </c>
       <c r="G275">
-        <v>320000</v>
+        <v>5900000</v>
       </c>
       <c r="H275">
         <v>3200</v>
@@ -14036,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="G276">
-        <v>330000</v>
+        <v>6100000</v>
       </c>
       <c r="H276">
         <v>3300</v>
@@ -14077,7 +14077,7 @@
         <v>1</v>
       </c>
       <c r="G277">
-        <v>340000</v>
+        <v>6300000</v>
       </c>
       <c r="H277">
         <v>3400</v>
@@ -14118,7 +14118,7 @@
         <v>1</v>
       </c>
       <c r="G278">
-        <v>350000</v>
+        <v>6500000</v>
       </c>
       <c r="H278">
         <v>3500</v>
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="G279">
-        <v>360000</v>
+        <v>6700000</v>
       </c>
       <c r="H279">
         <v>3600</v>
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="G280">
-        <v>370000</v>
+        <v>6900000</v>
       </c>
       <c r="H280">
         <v>3700</v>
@@ -14241,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="G281">
-        <v>380000</v>
+        <v>7100000</v>
       </c>
       <c r="H281">
         <v>3800</v>
@@ -14282,7 +14282,7 @@
         <v>1</v>
       </c>
       <c r="G282">
-        <v>390000</v>
+        <v>7300000</v>
       </c>
       <c r="H282">
         <v>3900</v>
@@ -14323,7 +14323,7 @@
         <v>1</v>
       </c>
       <c r="G283">
-        <v>400000</v>
+        <v>7500000</v>
       </c>
       <c r="H283">
         <v>4000</v>
@@ -14364,7 +14364,7 @@
         <v>1</v>
       </c>
       <c r="G284">
-        <v>410000</v>
+        <v>10000</v>
       </c>
       <c r="H284">
         <v>100</v>
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
       <c r="G285">
-        <v>420000</v>
+        <v>50000</v>
       </c>
       <c r="H285">
         <v>200</v>
@@ -14446,7 +14446,7 @@
         <v>1</v>
       </c>
       <c r="G286">
-        <v>430000</v>
+        <v>100000</v>
       </c>
       <c r="H286">
         <v>300</v>
@@ -14487,7 +14487,7 @@
         <v>1</v>
       </c>
       <c r="G287">
-        <v>440000</v>
+        <v>300000</v>
       </c>
       <c r="H287">
         <v>400</v>
@@ -14528,7 +14528,7 @@
         <v>1</v>
       </c>
       <c r="G288">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="H288">
         <v>500</v>
@@ -14569,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="G289">
-        <v>460000</v>
+        <v>700000</v>
       </c>
       <c r="H289">
         <v>600</v>
@@ -14610,7 +14610,7 @@
         <v>1</v>
       </c>
       <c r="G290">
-        <v>470000</v>
+        <v>900000</v>
       </c>
       <c r="H290">
         <v>700</v>
@@ -14651,7 +14651,7 @@
         <v>1</v>
       </c>
       <c r="G291">
-        <v>480000</v>
+        <v>1100000</v>
       </c>
       <c r="H291">
         <v>800</v>
@@ -14692,7 +14692,7 @@
         <v>1</v>
       </c>
       <c r="G292">
-        <v>490000</v>
+        <v>1300000</v>
       </c>
       <c r="H292">
         <v>900</v>
@@ -14733,7 +14733,7 @@
         <v>1</v>
       </c>
       <c r="G293">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="H293">
         <v>1000</v>
@@ -14774,7 +14774,7 @@
         <v>1</v>
       </c>
       <c r="G294">
-        <v>510000</v>
+        <v>1700000</v>
       </c>
       <c r="H294">
         <v>1100</v>
@@ -14815,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="G295">
-        <v>520000</v>
+        <v>1900000</v>
       </c>
       <c r="H295">
         <v>1200</v>
@@ -14856,7 +14856,7 @@
         <v>1</v>
       </c>
       <c r="G296">
-        <v>530000</v>
+        <v>2100000</v>
       </c>
       <c r="H296">
         <v>1300</v>
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="G297">
-        <v>540000</v>
+        <v>2300000</v>
       </c>
       <c r="H297">
         <v>1400</v>
@@ -14938,7 +14938,7 @@
         <v>1</v>
       </c>
       <c r="G298">
-        <v>550000</v>
+        <v>2500000</v>
       </c>
       <c r="H298">
         <v>1500</v>
@@ -14979,7 +14979,7 @@
         <v>1</v>
       </c>
       <c r="G299">
-        <v>560000</v>
+        <v>2700000</v>
       </c>
       <c r="H299">
         <v>1600</v>
@@ -15020,7 +15020,7 @@
         <v>1</v>
       </c>
       <c r="G300">
-        <v>570000</v>
+        <v>2900000</v>
       </c>
       <c r="H300">
         <v>1700</v>
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="G301">
-        <v>580000</v>
+        <v>3100000</v>
       </c>
       <c r="H301">
         <v>1800</v>
@@ -15102,7 +15102,7 @@
         <v>1</v>
       </c>
       <c r="G302">
-        <v>590000</v>
+        <v>3300000</v>
       </c>
       <c r="H302">
         <v>1900</v>
@@ -15143,7 +15143,7 @@
         <v>1</v>
       </c>
       <c r="G303">
-        <v>600000</v>
+        <v>3500000</v>
       </c>
       <c r="H303">
         <v>2000</v>
@@ -15184,7 +15184,7 @@
         <v>1</v>
       </c>
       <c r="G304">
-        <v>610000</v>
+        <v>3700000</v>
       </c>
       <c r="H304">
         <v>2100</v>
@@ -15225,7 +15225,7 @@
         <v>1</v>
       </c>
       <c r="G305">
-        <v>620000</v>
+        <v>3900000</v>
       </c>
       <c r="H305">
         <v>2200</v>
@@ -15266,7 +15266,7 @@
         <v>1</v>
       </c>
       <c r="G306">
-        <v>630000</v>
+        <v>4100000</v>
       </c>
       <c r="H306">
         <v>2300</v>
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="G307">
-        <v>640000</v>
+        <v>4300000</v>
       </c>
       <c r="H307">
         <v>2400</v>
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="G308">
-        <v>650000</v>
+        <v>4500000</v>
       </c>
       <c r="H308">
         <v>2500</v>
@@ -15389,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="G309">
-        <v>660000</v>
+        <v>4700000</v>
       </c>
       <c r="H309">
         <v>2600</v>
@@ -15430,7 +15430,7 @@
         <v>1</v>
       </c>
       <c r="G310">
-        <v>670000</v>
+        <v>4900000</v>
       </c>
       <c r="H310">
         <v>2700</v>
@@ -15471,7 +15471,7 @@
         <v>1</v>
       </c>
       <c r="G311">
-        <v>680000</v>
+        <v>5100000</v>
       </c>
       <c r="H311">
         <v>2800</v>
@@ -15512,7 +15512,7 @@
         <v>1</v>
       </c>
       <c r="G312">
-        <v>690000</v>
+        <v>5300000</v>
       </c>
       <c r="H312">
         <v>2900</v>
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="G313">
-        <v>700000</v>
+        <v>5500000</v>
       </c>
       <c r="H313">
         <v>3000</v>
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="G314">
-        <v>710000</v>
+        <v>5700000</v>
       </c>
       <c r="H314">
         <v>3100</v>
@@ -15635,7 +15635,7 @@
         <v>1</v>
       </c>
       <c r="G315">
-        <v>720000</v>
+        <v>5900000</v>
       </c>
       <c r="H315">
         <v>3200</v>
@@ -15676,7 +15676,7 @@
         <v>1</v>
       </c>
       <c r="G316">
-        <v>730000</v>
+        <v>6100000</v>
       </c>
       <c r="H316">
         <v>3300</v>
@@ -15717,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="G317">
-        <v>740000</v>
+        <v>6300000</v>
       </c>
       <c r="H317">
         <v>3400</v>
@@ -15758,7 +15758,7 @@
         <v>1</v>
       </c>
       <c r="G318">
-        <v>750000</v>
+        <v>6500000</v>
       </c>
       <c r="H318">
         <v>3500</v>
@@ -15799,7 +15799,7 @@
         <v>1</v>
       </c>
       <c r="G319">
-        <v>760000</v>
+        <v>6700000</v>
       </c>
       <c r="H319">
         <v>3600</v>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="G320">
-        <v>770000</v>
+        <v>6900000</v>
       </c>
       <c r="H320">
         <v>3700</v>
@@ -15881,7 +15881,7 @@
         <v>1</v>
       </c>
       <c r="G321">
-        <v>780000</v>
+        <v>7100000</v>
       </c>
       <c r="H321">
         <v>3800</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="G322">
-        <v>790000</v>
+        <v>7300000</v>
       </c>
       <c r="H322">
         <v>3900</v>
@@ -15963,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="G323">
-        <v>800000</v>
+        <v>7500000</v>
       </c>
       <c r="H323">
         <v>4000</v>
